--- a/cmd.xlsx
+++ b/cmd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3da0\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{2D0A645C-3DB4-49E2-8137-3F94FC9711DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85AB0A3-D783-4AA5-B71C-72A67A462758}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{2D0A645C-3DB4-49E2-8137-3F94FC9711DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E408ADF1-A0D5-4C82-93FB-38DDA7E4F687}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>Repeat times ( -1 = repeat forever)</t>
   </si>
   <si>
-    <t>red1.png</t>
+    <t>chrome_icon.png</t>
   </si>
   <si>
     <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮）</t>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
